--- a/vaq ETABS/Modelo Etabs Clase.xlsx
+++ b/vaq ETABS/Modelo Etabs Clase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\gitPrimer-Semestre-25\vaq ETABS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAB8578-4728-4600-9ACD-107C01E12E25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73B887F-A170-433E-B967-BC8FDC1910F8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{CAA792B5-319E-4E53-A5C7-FFAC89500351}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t xml:space="preserve">COLUMNA </t>
   </si>
   <si>
-    <t>35X25</t>
-  </si>
-  <si>
     <t>f'c = 280 kgf/cm2 (Columnas)</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Losa12</t>
+  </si>
+  <si>
+    <t>35X35</t>
   </si>
 </sst>
 </file>
@@ -153,17 +153,17 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,7 +484,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,27 +498,27 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -526,46 +526,46 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
